--- a/productividad equpos3.xlsx
+++ b/productividad equpos3.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="15600" windowHeight="7995" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="15600" windowHeight="7995" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="excavadoras" sheetId="1" r:id="rId1"/>
     <sheet name="tractor topadora" sheetId="2" r:id="rId2"/>
     <sheet name="cargador frontal" sheetId="3" r:id="rId3"/>
     <sheet name="volqueta" sheetId="4" r:id="rId4"/>
+    <sheet name="motoniveladora" sheetId="5" r:id="rId5"/>
+    <sheet name="compactadora" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="167">
   <si>
     <t>PRODUCTIVIDAD</t>
   </si>
@@ -296,6 +298,261 @@
   <si>
     <t>15*12</t>
   </si>
+  <si>
+    <t>tf</t>
+  </si>
+  <si>
+    <t>tiempo fijo</t>
+  </si>
+  <si>
+    <t>tiempo 2</t>
+  </si>
+  <si>
+    <t>tiempo 3</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>tiempo fijo= t2+t3</t>
+  </si>
+  <si>
+    <t>km/hr</t>
+  </si>
+  <si>
+    <t>resistencia a la rodadura</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> r</t>
+  </si>
+  <si>
+    <t>Qt=C*60*p*r*E/Tcorregido</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>factor pendiente</t>
+  </si>
+  <si>
+    <t>factor trabajo</t>
+  </si>
+  <si>
+    <t>distancia 1.5 km</t>
+  </si>
+  <si>
+    <t>distancia 0.5km</t>
+  </si>
+  <si>
+    <t>Qvolqueta *M</t>
+  </si>
+  <si>
+    <t>Qcarg*N</t>
+  </si>
+  <si>
+    <t>motoniveladora</t>
+  </si>
+  <si>
+    <t>CAT 140H</t>
+  </si>
+  <si>
+    <t>Qat = 60*d*(Le-Lo)/N*T</t>
+  </si>
+  <si>
+    <t>productividad teorica en area</t>
+  </si>
+  <si>
+    <t>Qat</t>
+  </si>
+  <si>
+    <t>productividad teorica en volumen</t>
+  </si>
+  <si>
+    <t>Qt</t>
+  </si>
+  <si>
+    <t>m2/hra</t>
+  </si>
+  <si>
+    <t>dist de trabaj recorrida p equipo</t>
+  </si>
+  <si>
+    <t>espesor de capa</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>ancho util en c/pasada</t>
+  </si>
+  <si>
+    <t>Le</t>
+  </si>
+  <si>
+    <t>ancho de traslape</t>
+  </si>
+  <si>
+    <t>Lo</t>
+  </si>
+  <si>
+    <t>num de pasadas necesarias</t>
+  </si>
+  <si>
+    <t>tiempo duracion del ciclo p/pasada</t>
+  </si>
+  <si>
+    <t>Qt = 60*d*e*(Le-Lo)/N*T</t>
+  </si>
+  <si>
+    <t>Le=L cos &amp;</t>
+  </si>
+  <si>
+    <t>longitud de hoja</t>
+  </si>
+  <si>
+    <t>angulo &amp;</t>
+  </si>
+  <si>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>pies</t>
+  </si>
+  <si>
+    <t>cos 30</t>
+  </si>
+  <si>
+    <r>
+      <t>En los trabajos de nivelación, escarificado, perfilado, reparación de caminos, limpieza de maleza, conformación de subrasantes y reparación de caminos, la productividad de la motoniveladora se calculará en superficie [m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">/hra].   </t>
+    </r>
+  </si>
+  <si>
+    <t>no usar el espesor</t>
+  </si>
+  <si>
+    <t>tiempo duracion del ciclo</t>
+  </si>
+  <si>
+    <t>T=d/Va + d/Vc + tf</t>
+  </si>
+  <si>
+    <t>distancia de trabajo</t>
+  </si>
+  <si>
+    <t>velociad de avance</t>
+  </si>
+  <si>
+    <t>Va</t>
+  </si>
+  <si>
+    <t>velocidade de retroceso</t>
+  </si>
+  <si>
+    <t>Vt</t>
+  </si>
+  <si>
+    <t>factor de hoja</t>
+  </si>
+  <si>
+    <t>factor eficiencia del trabajo</t>
+  </si>
+  <si>
+    <t>Fh</t>
+  </si>
+  <si>
+    <t>Qt = 60*d*(Le-Lo)*Fh*E*p/N*T</t>
+  </si>
+  <si>
+    <t>Qt = 60*d*e*(Le-Lo)*Fh*E*p/N*T</t>
+  </si>
+  <si>
+    <t>factor de cucharon</t>
+  </si>
+  <si>
+    <t>factor de trabaji</t>
+  </si>
+  <si>
+    <t>Qt=q*60*p*k*E/Tcorregido</t>
+  </si>
+  <si>
+    <t>compactadora rodillo liso</t>
+  </si>
+  <si>
+    <t>12 tn</t>
+  </si>
+  <si>
+    <t>Qat = W*V/N</t>
+  </si>
+  <si>
+    <t>produccion por hora</t>
+  </si>
+  <si>
+    <t>m2/hora</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>veloc de operacion</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>ancho efectivo de compact</t>
+  </si>
+  <si>
+    <t>num de pasadas del compac p capa</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>espesor compact por capa</t>
+  </si>
+  <si>
+    <t>espesor por capa</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>factor eficiencia de trabajp</t>
+  </si>
+  <si>
+    <t>Qa= W*V*E/N</t>
+  </si>
+  <si>
+    <t>Q= W*V*E*H/N</t>
+  </si>
+  <si>
+    <t>compactadora pata de cabra</t>
+  </si>
+  <si>
+    <t>m3/hora</t>
+  </si>
 </sst>
 </file>
 
@@ -305,7 +562,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,8 +576,21 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -339,6 +609,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -352,7 +634,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -365,6 +647,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -666,10 +957,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -753,66 +1044,66 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7">
-        <v>0.42</v>
-      </c>
-    </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="C8">
-        <f>G3*60*H10*G11*G9/G7</f>
+      <c r="C9">
+        <f>G3*60*H11*G12*G10/G8</f>
         <v>85.714285714285722</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
         <v>18</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F9" t="s">
         <v>19</v>
       </c>
-      <c r="G8">
+      <c r="G9">
         <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F9" t="s">
-        <v>71</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
         <v>31</v>
       </c>
-      <c r="G10">
+      <c r="G11">
         <v>1.5</v>
       </c>
-      <c r="H10">
+      <c r="H11">
         <f>1/1.5</f>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F11" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
         <v>86</v>
       </c>
-      <c r="G11">
+      <c r="G12">
         <v>0.9</v>
       </c>
     </row>
@@ -828,8 +1119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J25" sqref="A1:J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1158,10 +1449,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1170,7 +1461,7 @@
     <col min="5" max="5" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>53</v>
       </c>
@@ -1178,7 +1469,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -1192,14 +1483,18 @@
       <c r="H2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2">
+        <f>15*12</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2">
         <f>G3*60/G4</f>
-        <v>260.45985335385171</v>
+        <v>208.03532959931064</v>
       </c>
       <c r="D3" t="s">
         <v>88</v>
@@ -1211,13 +1506,17 @@
         <v>5</v>
       </c>
       <c r="G3" s="1">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <f>C3/12</f>
+        <v>17.336277466609221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>25</v>
       </c>
@@ -1226,13 +1525,13 @@
       </c>
       <c r="G4" s="1">
         <f>C7</f>
-        <v>0.69108539255552082</v>
+        <v>0.8363963963963964</v>
       </c>
       <c r="H4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -1249,19 +1548,19 @@
         <v>30</v>
       </c>
       <c r="G6" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>55</v>
       </c>
       <c r="C7" s="1">
         <f>(G6/G7)+(G6/G8)+G9</f>
-        <v>0.69108539255552082</v>
+        <v>0.8363963963963964</v>
       </c>
       <c r="E7" t="s">
         <v>56</v>
@@ -1271,19 +1570,19 @@
       </c>
       <c r="G7" s="1">
         <f>I7*1000/60</f>
-        <v>115</v>
+        <v>61.666666666666664</v>
       </c>
       <c r="H7" t="s">
         <v>34</v>
       </c>
       <c r="I7" s="5">
-        <v>6.9</v>
+        <v>3.7</v>
       </c>
       <c r="J7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>35</v>
       </c>
@@ -1292,19 +1591,19 @@
       </c>
       <c r="G8" s="1">
         <f>I8*1000/60</f>
-        <v>231.66666666666666</v>
+        <v>75</v>
       </c>
       <c r="H8" t="s">
         <v>34</v>
       </c>
       <c r="I8" s="5">
-        <v>13.9</v>
+        <v>4.5</v>
       </c>
       <c r="J8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>39</v>
       </c>
@@ -1312,6 +1611,7 @@
         <v>40</v>
       </c>
       <c r="G9" s="1">
+        <f>C12</f>
         <v>0.6</v>
       </c>
       <c r="H9" t="s">
@@ -1319,7 +1619,7 @@
       </c>
       <c r="I9" s="5"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -1331,55 +1631,84 @@
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>57</v>
       </c>
       <c r="C12" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C18" s="1"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C15" t="s">
         <v>12</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E15" t="s">
         <v>17</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="G15" s="1">
+        <f>G4</f>
+        <v>0.8363963963963964</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C16">
+        <f>G3*60*G17*G18*G19/G15</f>
+        <v>177.87020680741057</v>
+      </c>
+      <c r="E16" t="s">
         <v>18</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F16" t="s">
         <v>19</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>145</v>
+      </c>
+      <c r="F17" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="18" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>101</v>
+      </c>
+      <c r="F18" t="s">
+        <v>100</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>146</v>
+      </c>
+      <c r="F19" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19">
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
@@ -1392,24 +1721,807 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.140625" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="6" max="6" width="5.140625" customWidth="1"/>
+    <col min="11" max="12" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" t="s">
+        <v>105</v>
+      </c>
+      <c r="L2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="1">
+        <f>G3*60/G4</f>
+        <v>47.43193994803039</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="1">
+        <f>C8</f>
+        <v>7.8947368421052637</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="1">
+        <f>C16</f>
+        <v>9.9866084129242019</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G5" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="1">
+        <f>B13</f>
+        <v>2.255639097744361</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="1">
+        <f>G7*G9</f>
+        <v>7.8947368421052637</v>
+      </c>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="1">
+        <v>12</v>
+      </c>
+      <c r="H12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13">
+        <f>G12/(G9*G10*G13)</f>
+        <v>2.255639097744361</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="E13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13">
+        <v>1.6</v>
+      </c>
+      <c r="H13" t="s">
+        <v>78</v>
+      </c>
+      <c r="I13">
+        <v>1.6</v>
+      </c>
+      <c r="J13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" s="3">
+        <f>'cargador frontal'!C7</f>
+        <v>0.8363963963963964</v>
+      </c>
+      <c r="H15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="1">
+        <f>(G7*G15)+G19+(G16/G17)+(G16/G18)</f>
+        <v>9.9866084129242019</v>
+      </c>
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1500</v>
+      </c>
+      <c r="H16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C17" s="1"/>
+      <c r="E17" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" s="1">
+        <f>I17*1000/60</f>
+        <v>416.66666666666669</v>
+      </c>
+      <c r="H17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17">
+        <v>25</v>
+      </c>
+      <c r="J17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C18" s="1"/>
+      <c r="E18" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" t="s">
+        <v>85</v>
+      </c>
+      <c r="G18">
+        <f>I18*1000/60</f>
+        <v>500</v>
+      </c>
+      <c r="H18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18">
+        <v>30</v>
+      </c>
+      <c r="J18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C19" s="1"/>
+      <c r="E19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19">
+        <f>G20+G21</f>
+        <v>1.5</v>
+      </c>
+      <c r="H19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C20" s="1"/>
+      <c r="E20" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" t="s">
+        <v>93</v>
+      </c>
+      <c r="G20">
+        <v>1.2</v>
+      </c>
+      <c r="H20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C21" s="1"/>
+      <c r="E21" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21" t="s">
+        <v>94</v>
+      </c>
+      <c r="G21">
+        <v>0.3</v>
+      </c>
+      <c r="H21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="1">
+        <f>G4</f>
+        <v>9.9866084129242019</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="1">
+        <f>C8*60*G26*G25*G27/G23</f>
+        <v>38.419871357904618</v>
+      </c>
+      <c r="E24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25" t="s">
+        <v>98</v>
+      </c>
+      <c r="G25">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>101</v>
+      </c>
+      <c r="F26" t="s">
+        <v>100</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>102</v>
+      </c>
+      <c r="F27" t="s">
+        <v>86</v>
+      </c>
+      <c r="G27">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" s="9"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" t="s">
+        <v>3</v>
+      </c>
+      <c r="H31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="1">
+        <f>G32*60/G33</f>
+        <v>128.02275960170698</v>
+      </c>
+      <c r="E32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" t="s">
+        <v>63</v>
+      </c>
+      <c r="G32" s="1">
+        <f>C37</f>
+        <v>7.8947368421052637</v>
+      </c>
+      <c r="H32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
+        <v>65</v>
+      </c>
+      <c r="G33" s="1">
+        <f>C45</f>
+        <v>3.7</v>
+      </c>
+      <c r="H33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G34" s="1"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F36" t="s">
+        <v>67</v>
+      </c>
+      <c r="G36" s="1">
+        <f>B42</f>
+        <v>2.255639097744361</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="1">
+        <f>G36*G38</f>
+        <v>7.8947368421052637</v>
+      </c>
+      <c r="E37" s="7"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>68</v>
+      </c>
+      <c r="F38" t="s">
+        <v>69</v>
+      </c>
+      <c r="G38" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>70</v>
+      </c>
+      <c r="F39" t="s">
+        <v>71</v>
+      </c>
+      <c r="G39" s="4">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>72</v>
+      </c>
+      <c r="B41" t="s">
+        <v>67</v>
+      </c>
+      <c r="E41" t="s">
+        <v>74</v>
+      </c>
+      <c r="G41" s="1">
+        <v>12</v>
+      </c>
+      <c r="H41" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42">
+        <f>G41/(G38*G39*G42)</f>
+        <v>2.255639097744361</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="E42" t="s">
+        <v>76</v>
+      </c>
+      <c r="G42">
+        <v>1.6</v>
+      </c>
+      <c r="H42" t="s">
+        <v>78</v>
+      </c>
+      <c r="I42">
+        <v>1.6</v>
+      </c>
+      <c r="J42" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44" t="s">
+        <v>80</v>
+      </c>
+      <c r="F44" t="s">
+        <v>81</v>
+      </c>
+      <c r="G44" s="3">
+        <f>'cargador frontal'!C30</f>
+        <v>0</v>
+      </c>
+      <c r="H44" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C45" s="1">
+        <f>(G36*G44)+G48+(G45/G46)+(G45/G47)</f>
+        <v>3.7</v>
+      </c>
+      <c r="E45" t="s">
+        <v>29</v>
+      </c>
+      <c r="F45" t="s">
+        <v>30</v>
+      </c>
+      <c r="G45" s="4">
+        <v>500</v>
+      </c>
+      <c r="H45" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C46" s="1"/>
+      <c r="E46" t="s">
+        <v>82</v>
+      </c>
+      <c r="F46" t="s">
+        <v>83</v>
+      </c>
+      <c r="G46" s="1">
+        <f>I46*1000/60</f>
+        <v>416.66666666666669</v>
+      </c>
+      <c r="H46" t="s">
+        <v>34</v>
+      </c>
+      <c r="I46">
+        <v>25</v>
+      </c>
+      <c r="J46" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C47" s="1"/>
+      <c r="E47" t="s">
+        <v>84</v>
+      </c>
+      <c r="F47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G47">
+        <f>I47*1000/60</f>
+        <v>500</v>
+      </c>
+      <c r="H47" t="s">
+        <v>34</v>
+      </c>
+      <c r="I47">
+        <v>30</v>
+      </c>
+      <c r="J47" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C48" s="1"/>
+      <c r="E48" t="s">
+        <v>95</v>
+      </c>
+      <c r="F48" t="s">
+        <v>89</v>
+      </c>
+      <c r="G48">
+        <f>G49+G50</f>
+        <v>1.5</v>
+      </c>
+      <c r="H48" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C49" s="1"/>
+      <c r="E49" t="s">
+        <v>91</v>
+      </c>
+      <c r="F49" t="s">
+        <v>93</v>
+      </c>
+      <c r="G49">
+        <v>1.2</v>
+      </c>
+      <c r="H49" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C50" s="1"/>
+      <c r="E50" t="s">
+        <v>92</v>
+      </c>
+      <c r="F50" t="s">
+        <v>94</v>
+      </c>
+      <c r="G50">
+        <v>0.3</v>
+      </c>
+      <c r="H50" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" t="s">
+        <v>17</v>
+      </c>
+      <c r="F52" t="s">
+        <v>16</v>
+      </c>
+      <c r="G52" s="1">
+        <f>G33</f>
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53" s="1">
+        <f>C37*60*G55*G54*G56/G52</f>
+        <v>103.69843527738266</v>
+      </c>
+      <c r="E53" t="s">
+        <v>18</v>
+      </c>
+      <c r="F53" t="s">
+        <v>19</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E54" t="s">
+        <v>97</v>
+      </c>
+      <c r="F54" t="s">
+        <v>98</v>
+      </c>
+      <c r="G54">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E55" t="s">
+        <v>101</v>
+      </c>
+      <c r="F55" t="s">
+        <v>100</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E56" t="s">
+        <v>102</v>
+      </c>
+      <c r="F56" t="s">
+        <v>86</v>
+      </c>
+      <c r="G56">
+        <v>0.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C30:D30"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1418,7 +2530,7 @@
       </c>
       <c r="B2" s="6"/>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
@@ -1427,253 +2539,678 @@
         <v>7</v>
       </c>
     </row>
+    <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="2">
+        <f>60*G5*(G7-G8)/(G9*G10)</f>
+        <v>1095.7192763076923</v>
+      </c>
+      <c r="E3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="1">
+        <v>100</v>
+      </c>
+      <c r="H5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6">
+        <f>60*G5*G6*(G7-G8)/(G9*G10)</f>
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G7" s="1">
+        <f>C14</f>
+        <v>3.1675730400000006</v>
+      </c>
+      <c r="H7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="1">
+        <f>C17</f>
+        <v>3.2500000000000004</v>
+      </c>
+      <c r="H10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G11" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="4">
+        <f>I13*0.3048</f>
+        <v>3.6576000000000004</v>
+      </c>
+      <c r="H13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13">
+        <v>12</v>
+      </c>
+      <c r="J13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="1">
+        <f>G13*J14</f>
+        <v>3.1675730400000006</v>
+      </c>
+      <c r="E14" t="s">
+        <v>127</v>
+      </c>
+      <c r="F14" t="s">
+        <v>128</v>
+      </c>
+      <c r="G14" s="10">
+        <v>30</v>
+      </c>
+      <c r="I14" t="s">
+        <v>130</v>
+      </c>
+      <c r="J14">
+        <v>0.86602500000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="1"/>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" t="s">
+        <v>135</v>
+      </c>
+      <c r="F16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="10">
+        <v>100</v>
+      </c>
+      <c r="H16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17">
+        <f>(G16/G17)+(G16/G18)+G19</f>
+        <v>3.2500000000000004</v>
+      </c>
+      <c r="E17" t="s">
+        <v>136</v>
+      </c>
+      <c r="F17" t="s">
+        <v>137</v>
+      </c>
+      <c r="G17" s="1">
+        <f>I17*1000/60</f>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="H17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17">
+        <v>5</v>
+      </c>
+      <c r="J17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>138</v>
+      </c>
+      <c r="F18" t="s">
+        <v>139</v>
+      </c>
+      <c r="G18" s="1">
+        <f>I18*1000/60</f>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="H18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18">
+        <v>5</v>
+      </c>
+      <c r="J18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="H19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" t="s">
+        <v>140</v>
+      </c>
+      <c r="F22" t="s">
+        <v>142</v>
+      </c>
+      <c r="G22">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>143</v>
+      </c>
+      <c r="C23" s="1">
+        <f>60*G5*(G7-G8)*G22*G23*G24/(G9*G10)</f>
+        <v>838.22524637538459</v>
+      </c>
+      <c r="E23" t="s">
+        <v>101</v>
+      </c>
+      <c r="F23" t="s">
+        <v>100</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>141</v>
+      </c>
+      <c r="F24" t="s">
+        <v>86</v>
+      </c>
+      <c r="G24">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26">
+        <f>60*G5*G6*(G7-G8)*G22*G23*G24/(G9*G10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.42578125" customWidth="1"/>
+    <col min="5" max="5" width="32.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="2" t="e">
-        <f>G3*60/G5</f>
-        <v>#DIV/0!</v>
+        <v>150</v>
+      </c>
+      <c r="C3" s="2">
+        <f>G5*G4*60/G6</f>
+        <v>640.19999999999993</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>151</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="G3" s="1">
-        <f>C8</f>
-        <v>7.8947368421052637</v>
+        <v>3</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
-        <v>64</v>
+        <v>154</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>153</v>
+      </c>
+      <c r="G4" s="1">
+        <f>I4*1000/60</f>
+        <v>50</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>34</v>
+      </c>
+      <c r="I4" s="5">
+        <v>3</v>
+      </c>
+      <c r="J4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G5" s="1"/>
+      <c r="E5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G5" s="1">
+        <f>I5/1000</f>
+        <v>2.1339999999999999</v>
+      </c>
+      <c r="H5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5">
+        <v>2134</v>
+      </c>
+      <c r="J5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>66</v>
+      <c r="E7" t="s">
+        <v>159</v>
       </c>
       <c r="F7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G7">
-        <f>B13</f>
-        <v>2.255639097744361</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="1">
-        <f>G7*G9</f>
-        <v>7.8947368421052637</v>
-      </c>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E9" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" t="s">
-        <v>69</v>
-      </c>
-      <c r="G9" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="H9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E10" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" t="s">
-        <v>71</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0.95</v>
+        <v>117</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="H7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" t="s">
+        <v>160</v>
+      </c>
+      <c r="F11" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12" t="s">
-        <v>67</v>
+        <v>163</v>
+      </c>
+      <c r="C12">
+        <f>G5*G4*G12*60/G6</f>
+        <v>576.17999999999995</v>
       </c>
       <c r="E12" t="s">
-        <v>74</v>
-      </c>
-      <c r="G12" s="1">
-        <v>12</v>
-      </c>
-      <c r="H12" t="s">
-        <v>75</v>
+        <v>162</v>
+      </c>
+      <c r="F12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12">
+        <v>0.9</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13">
-        <f>G12/(G9*G10*G13)</f>
-        <v>2.255639097744361</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="E13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G13">
-        <v>1.6</v>
-      </c>
-      <c r="H13" t="s">
-        <v>78</v>
-      </c>
-      <c r="I13">
-        <v>1.6</v>
-      </c>
-      <c r="J13" t="s">
-        <v>77</v>
+      <c r="C13" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A14" t="s">
+        <v>164</v>
+      </c>
+      <c r="C14">
+        <f>G5*G4*G12*G11*60/G6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>165</v>
+      </c>
+      <c r="B17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" t="s">
+        <v>114</v>
+      </c>
+      <c r="E18" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>150</v>
+      </c>
+      <c r="C19" s="2">
+        <f>G21*G20*60/G22</f>
+        <v>639</v>
+      </c>
+      <c r="E19" t="s">
+        <v>151</v>
+      </c>
+      <c r="F19" t="s">
+        <v>111</v>
+      </c>
+      <c r="G19" s="1">
+        <v>3</v>
+      </c>
+      <c r="H19" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>154</v>
+      </c>
+      <c r="F20" t="s">
+        <v>153</v>
+      </c>
+      <c r="G20" s="1">
+        <f>I20*1000/60</f>
+        <v>50</v>
+      </c>
+      <c r="H20" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20" s="5">
+        <v>3</v>
+      </c>
+      <c r="J20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>156</v>
+      </c>
+      <c r="F21" t="s">
+        <v>155</v>
+      </c>
+      <c r="G21" s="12">
+        <f>I21/1000</f>
+        <v>2.13</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21" s="4">
+        <v>2130</v>
+      </c>
+      <c r="J21" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>157</v>
+      </c>
+      <c r="F22" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="1">
         <v>10</v>
       </c>
-      <c r="B15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" t="s">
-        <v>80</v>
-      </c>
-      <c r="F15" t="s">
-        <v>81</v>
-      </c>
-      <c r="G15" s="3">
-        <f>'cargador frontal'!C7</f>
-        <v>0.69108539255552082</v>
-      </c>
-      <c r="H15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="E16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" s="4"/>
-      <c r="H16" t="s">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>159</v>
+      </c>
+      <c r="F23" t="s">
+        <v>117</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="H23" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C17" s="1"/>
-      <c r="E17" t="s">
-        <v>82</v>
-      </c>
-      <c r="F17" t="s">
-        <v>83</v>
-      </c>
-      <c r="H17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C18" s="1"/>
-      <c r="E18" t="s">
-        <v>84</v>
-      </c>
-      <c r="F18" t="s">
-        <v>85</v>
-      </c>
-      <c r="H18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C23" s="1"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>13</v>
       </c>
-      <c r="C26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>15</v>
+      <c r="C27" t="s">
+        <v>114</v>
       </c>
       <c r="E27" t="s">
-        <v>18</v>
+        <v>160</v>
       </c>
       <c r="F27" t="s">
-        <v>19</v>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>163</v>
+      </c>
+      <c r="C28">
+        <f>G21*G20*G28*60/G22</f>
+        <v>575.10000000000014</v>
+      </c>
+      <c r="E28" t="s">
+        <v>162</v>
+      </c>
+      <c r="F28" t="s">
+        <v>86</v>
+      </c>
+      <c r="G28">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>164</v>
+      </c>
+      <c r="C30">
+        <f>G21*G20*G28*G27*60/G22</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="A18:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/productividad equpos3.xlsx
+++ b/productividad equpos3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="15600" windowHeight="7995" activeTab="5"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="15600" windowHeight="7995" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="excavadoras" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="173">
   <si>
     <t>PRODUCTIVIDAD</t>
   </si>
@@ -552,6 +552,24 @@
   </si>
   <si>
     <t>m3/hora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RETROEXCAVADORA </t>
+  </si>
+  <si>
+    <t>CAT 428 F</t>
+  </si>
+  <si>
+    <t>factor cucharon</t>
+  </si>
+  <si>
+    <t>factor material</t>
+  </si>
+  <si>
+    <t>eficiencia de trabajo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">productividad real promedio </t>
   </si>
 </sst>
 </file>
@@ -622,7 +640,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -630,32 +648,129 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -957,159 +1072,429 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
     <col min="6" max="6" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="14" t="s">
         <v>2</v>
       </c>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2" s="18"/>
+      <c r="E2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H2" t="s">
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="19" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2">
+      <c r="B3" s="18"/>
+      <c r="C3" s="21">
         <f>G3*60/G6</f>
         <v>142.85714285714286</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D3" s="18"/>
+      <c r="E3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="18">
         <v>1</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="19" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E4" t="s">
+      <c r="A4" s="20"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G4">
+      <c r="F4" s="18"/>
+      <c r="G4" s="18">
         <v>90</v>
       </c>
+      <c r="H4" s="19"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E5" t="s">
+      <c r="A5" s="20"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G5">
+      <c r="F5" s="18"/>
+      <c r="G5" s="18">
         <v>1</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="19" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E6" t="s">
+      <c r="A6" s="20"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="18">
         <v>0.42</v>
       </c>
+      <c r="H6" s="19"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="20"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="19"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B8" s="18"/>
+      <c r="C8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E8" t="s">
+      <c r="D8" s="18"/>
+      <c r="E8" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="18">
         <v>0.42</v>
       </c>
+      <c r="H8" s="19"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C9">
+      <c r="B9" s="18"/>
+      <c r="C9" s="18">
         <f>G3*60*H11*G12*G10/G8</f>
         <v>85.714285714285722</v>
       </c>
-      <c r="E9" t="s">
+      <c r="D9" s="18"/>
+      <c r="E9" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="18">
         <v>0</v>
       </c>
+      <c r="H9" s="19"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F10" t="s">
+      <c r="A10" s="20"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="F10" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="18">
         <v>1</v>
       </c>
+      <c r="H10" s="19"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F11" t="s">
+      <c r="A11" s="20"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="F11" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="18">
         <v>1.5</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="19">
         <f>1/1.5</f>
         <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F12" t="s">
+      <c r="A12" s="22"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="F12" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="23">
         <v>0.9</v>
       </c>
+      <c r="H12" s="24"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="21">
+        <f>G17*60/G20</f>
+        <v>142.85714285714286</v>
+      </c>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="18">
+        <v>1</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="20"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18">
+        <v>90</v>
+      </c>
+      <c r="H18" s="19"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="20"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18">
+        <v>1</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="20"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="18">
+        <v>0.42</v>
+      </c>
+      <c r="H20" s="19"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="20"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="19"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="18">
+        <v>0.42</v>
+      </c>
+      <c r="H22" s="19"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18">
+        <f>G17*60*H25*G26*G24/G22</f>
+        <v>85.714285714285722</v>
+      </c>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="18">
+        <v>0</v>
+      </c>
+      <c r="H23" s="19"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="20"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="G24" s="18">
+        <v>1</v>
+      </c>
+      <c r="H24" s="19"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="20"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="H25" s="19">
+        <f>1/1.5</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="22"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="G26" s="23">
+        <v>0.9</v>
+      </c>
+      <c r="H26" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A16:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1138,10 +1523,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6"/>
+      <c r="B2" s="10"/>
       <c r="C2" t="s">
         <v>12</v>
       </c>
@@ -1470,10 +1855,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6"/>
+      <c r="B2" s="10"/>
       <c r="C2" t="s">
         <v>12</v>
       </c>
@@ -1721,10 +2106,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L56"/>
+  <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1736,22 +2121,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="9"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6"/>
+      <c r="B2" s="10"/>
       <c r="C2" t="s">
         <v>12</v>
       </c>
@@ -1818,7 +2203,7 @@
       <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="11" t="s">
         <v>66</v>
       </c>
       <c r="F7" t="s">
@@ -1837,7 +2222,7 @@
         <f>G7*G9</f>
         <v>7.8947368421052637</v>
       </c>
-      <c r="E8" s="7"/>
+      <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
@@ -2114,22 +2499,22 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="D30" s="9"/>
+      <c r="D30" s="12"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="6"/>
+      <c r="B31" s="10"/>
       <c r="C31" t="s">
         <v>12</v>
       </c>
@@ -2190,7 +2575,7 @@
       <c r="C36" t="s">
         <v>22</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="11" t="s">
         <v>66</v>
       </c>
       <c r="F36" t="s">
@@ -2209,7 +2594,7 @@
         <f>G36*G38</f>
         <v>7.8947368421052637</v>
       </c>
-      <c r="E37" s="7"/>
+      <c r="E37" s="11"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
@@ -2483,6 +2868,20 @@
       </c>
       <c r="G56">
         <v>0.9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>172</v>
+      </c>
+      <c r="B59" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B60" s="1">
+        <f>AVERAGE(C53,C24)</f>
+        <v>71.059153317643634</v>
       </c>
     </row>
   </sheetData>
@@ -2503,8 +2902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2525,10 +2924,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6"/>
+      <c r="B2" s="10"/>
       <c r="C2" t="s">
         <v>114</v>
       </c>
@@ -2557,7 +2956,7 @@
       <c r="H3" t="s">
         <v>114</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="8" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2710,7 +3109,7 @@
       <c r="F14" t="s">
         <v>128</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="7">
         <v>30</v>
       </c>
       <c r="I14" t="s">
@@ -2722,7 +3121,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C15" s="1"/>
-      <c r="G15" s="10"/>
+      <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -2740,7 +3139,7 @@
       <c r="F16" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="7">
         <v>100</v>
       </c>
       <c r="H16" t="s">
@@ -2815,7 +3214,7 @@
         <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="E22" t="s">
         <v>140</v>
@@ -2882,8 +3281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2901,10 +3300,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6"/>
+      <c r="B2" s="10"/>
       <c r="C2" t="s">
         <v>114</v>
       </c>
@@ -3058,10 +3457,10 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="6"/>
+      <c r="B18" s="10"/>
       <c r="C18" t="s">
         <v>114</v>
       </c>
@@ -3121,7 +3520,7 @@
       <c r="F21" t="s">
         <v>155</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="9">
         <f>I21/1000</f>
         <v>2.13</v>
       </c>
@@ -3173,6 +3572,7 @@
       <c r="F27" t="s">
         <v>161</v>
       </c>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">

--- a/productividad equpos3.xlsx
+++ b/productividad equpos3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="15600" windowHeight="7995" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="15600" windowHeight="7935" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="excavadoras" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="176">
   <si>
     <t>PRODUCTIVIDAD</t>
   </si>
@@ -570,6 +570,15 @@
   </si>
   <si>
     <t xml:space="preserve">productividad real promedio </t>
+  </si>
+  <si>
+    <t>sub base</t>
+  </si>
+  <si>
+    <t>terraplen</t>
+  </si>
+  <si>
+    <t>desbroce</t>
   </si>
 </sst>
 </file>
@@ -608,7 +617,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -618,12 +627,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -640,7 +643,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -728,41 +731,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -771,6 +796,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1074,8 +1130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24:E26"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1086,415 +1142,417 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="15"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="8"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18" t="s">
+      <c r="D2" s="9"/>
+      <c r="E2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="19" t="s">
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="21">
+      <c r="B3" s="9"/>
+      <c r="C3" s="12">
         <f>G3*60/G6</f>
         <v>142.85714285714286</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="9">
         <v>1</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18">
+      <c r="F4" s="9"/>
+      <c r="G4" s="9">
         <v>90</v>
       </c>
-      <c r="H4" s="19"/>
+      <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18">
+      <c r="F5" s="9"/>
+      <c r="G5" s="9">
         <v>1</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="9">
         <v>0.42</v>
       </c>
-      <c r="H6" s="19"/>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="19"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18" t="s">
+      <c r="B8" s="19"/>
+      <c r="C8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18" t="s">
+      <c r="D8" s="9"/>
+      <c r="E8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="9">
         <v>0.42</v>
       </c>
-      <c r="H8" s="19"/>
+      <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9">
         <f>G3*60*H11*G12*G10/G8</f>
         <v>85.714285714285722</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18" t="s">
+      <c r="D9" s="9"/>
+      <c r="E9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="9">
         <v>0</v>
       </c>
-      <c r="H9" s="19"/>
+      <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="25" t="s">
+      <c r="A10" s="11"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="9">
         <v>1</v>
       </c>
-      <c r="H10" s="19"/>
+      <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="25" t="s">
+      <c r="A11" s="11"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="9">
         <v>1.5</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="10">
         <f>1/1.5</f>
         <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23" t="s">
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="14">
         <v>0.9</v>
       </c>
-      <c r="H12" s="24"/>
+      <c r="H12" s="15"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="15"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18" t="s">
+      <c r="B16" s="19"/>
+      <c r="C16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18" t="s">
+      <c r="D16" s="9"/>
+      <c r="E16" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="19" t="s">
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="21">
+      <c r="B17" s="9"/>
+      <c r="C17" s="12">
         <f>G17*60/G20</f>
         <v>142.85714285714286</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18" t="s">
+      <c r="D17" s="9"/>
+      <c r="E17" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="9">
         <v>1</v>
       </c>
-      <c r="H17" s="19" t="s">
+      <c r="H17" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18" t="s">
+      <c r="A18" s="11"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18">
+      <c r="F18" s="9"/>
+      <c r="G18" s="9">
         <v>90</v>
       </c>
-      <c r="H18" s="19"/>
+      <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18" t="s">
+      <c r="A19" s="11"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18">
-        <v>1</v>
-      </c>
-      <c r="H19" s="19" t="s">
+      <c r="F19" s="9"/>
+      <c r="G19" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="H19" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18" t="s">
+      <c r="A20" s="11"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="18" t="s">
+      <c r="F20" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="9">
         <v>0.42</v>
       </c>
-      <c r="H20" s="19"/>
+      <c r="H20" s="10"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="19"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18" t="s">
+      <c r="B22" s="19"/>
+      <c r="C22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18" t="s">
+      <c r="D22" s="9"/>
+      <c r="E22" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="18" t="s">
+      <c r="F22" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="9">
         <v>0.42</v>
       </c>
-      <c r="H22" s="19"/>
+      <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9">
         <f>G17*60*H25*G26*G24/G22</f>
         <v>85.714285714285722</v>
       </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18" t="s">
+      <c r="D23" s="9"/>
+      <c r="E23" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="18" t="s">
+      <c r="F23" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="9">
         <v>0</v>
       </c>
-      <c r="H23" s="19"/>
+      <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="25" t="s">
+      <c r="A24" s="11"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="F24" s="18" t="s">
+      <c r="F24" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="9">
         <v>1</v>
       </c>
-      <c r="H24" s="19"/>
+      <c r="H24" s="10"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="25" t="s">
+      <c r="A25" s="11"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="F25" s="18" t="s">
+      <c r="F25" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="9">
         <v>1.5</v>
       </c>
-      <c r="H25" s="19">
+      <c r="H25" s="10">
         <f>1/1.5</f>
         <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="22"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23" t="s">
+      <c r="A26" s="13"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="F26" s="23" t="s">
+      <c r="F26" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="G26" s="23">
+      <c r="G26" s="14">
         <v>0.9</v>
       </c>
-      <c r="H26" s="24"/>
+      <c r="H26" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A22:B22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1505,7 +1563,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="A1:J25"/>
+      <selection sqref="A1:H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1515,115 +1573,149 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="23" t="s">
         <v>21</v>
       </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2" s="23"/>
+      <c r="E2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="H2" t="s">
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2">
+      <c r="B3" s="23"/>
+      <c r="C3" s="25">
         <f>G3*60/G5</f>
         <v>67.768293460043196</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D3" s="23"/>
+      <c r="E3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="26">
         <f>C17</f>
         <v>1.8844876799999999</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="23" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E4" t="s">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="23" t="s">
         <v>24</v>
       </c>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E5" t="s">
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="26">
         <f>C8</f>
         <v>1.6684684684684685</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="23" t="s">
         <v>26</v>
       </c>
     </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+    </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E7" t="s">
+      <c r="D7" s="23"/>
+      <c r="E7" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="27">
         <v>30</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="23" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="1">
+      <c r="B8" s="23"/>
+      <c r="C8" s="26">
         <f>(G7/G8)+((G7+G10)/G9)+G11</f>
         <v>1.6684684684684685</v>
       </c>
-      <c r="E8" t="s">
+      <c r="D8" s="23"/>
+      <c r="E8" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="26">
         <f>I8*1000/60</f>
         <v>61.666666666666664</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="23" t="s">
         <v>34</v>
       </c>
       <c r="I8">
@@ -1631,17 +1723,21 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E9" t="s">
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="23">
         <f>I9*1000/60</f>
         <v>75</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="23" t="s">
         <v>34</v>
       </c>
       <c r="I9">
@@ -1652,55 +1748,74 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E10" t="s">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="23">
         <v>10</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="23" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E11" t="s">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="26">
         <f>C14</f>
         <v>0.64864864864864868</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="23" t="s">
         <v>26</v>
       </c>
     </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+    </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E13" t="s">
+      <c r="D13" s="23"/>
+      <c r="E13" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="26">
         <f>I13*1000/60</f>
         <v>30.833333333333332</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="23" t="s">
         <v>34</v>
       </c>
       <c r="I13">
@@ -1712,117 +1827,176 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="1">
+      <c r="B14" s="23"/>
+      <c r="C14" s="26">
         <f>2*G14/G13</f>
         <v>0.64864864864864868</v>
       </c>
-      <c r="E14" t="s">
+      <c r="D14" s="23"/>
+      <c r="E14" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="23">
         <v>10</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="23" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C15" s="1"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="E16" t="s">
+      <c r="D16" s="23"/>
+      <c r="E16" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="23">
         <v>0.96</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="23" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="1">
+      <c r="B17" s="23"/>
+      <c r="C17" s="26">
         <f>0.48*G16*G16*G17</f>
         <v>1.8844876799999999</v>
       </c>
-      <c r="E17" t="s">
+      <c r="D17" s="23"/>
+      <c r="E17" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="23">
         <v>4.26</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="23" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C18" s="1"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C19" s="1"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C20" s="1"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C23" t="s">
+      <c r="B23" s="23"/>
+      <c r="C23" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E23" t="s">
+      <c r="D23" s="23"/>
+      <c r="E23" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="23">
         <f>G5*(1+G24)</f>
         <v>1.6684684684684685</v>
       </c>
+      <c r="H23" s="23"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="C24">
+      <c r="B24" s="23"/>
+      <c r="C24" s="23">
         <f>29*G16*G16*G17/G23</f>
         <v>68.238906609071265</v>
       </c>
-      <c r="E24" t="s">
+      <c r="D24" s="23"/>
+      <c r="E24" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="23">
         <v>0</v>
       </c>
+      <c r="H24" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1836,8 +2010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="A1:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1847,25 +2021,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="23" t="s">
         <v>54</v>
       </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2" s="23"/>
+      <c r="E2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="H2" t="s">
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23" t="s">
         <v>7</v>
       </c>
       <c r="K2">
@@ -1874,26 +2057,27 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2">
+      <c r="B3" s="23"/>
+      <c r="C3" s="25">
         <f>G3*60/G4</f>
         <v>208.03532959931064</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="26">
         <v>2.9</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="23" t="s">
         <v>6</v>
       </c>
       <c r="K3">
@@ -1902,65 +2086,82 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E4" t="s">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="26">
         <f>C7</f>
         <v>0.8363963963963964</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="23" t="s">
         <v>26</v>
       </c>
     </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+    </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E6" t="s">
+      <c r="D6" s="23"/>
+      <c r="E6" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="27">
         <v>8</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="23" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="1">
+      <c r="B7" s="23"/>
+      <c r="C7" s="26">
         <f>(G6/G7)+(G6/G8)+G9</f>
         <v>0.8363963963963964</v>
       </c>
-      <c r="E7" t="s">
+      <c r="D7" s="23"/>
+      <c r="E7" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="26">
         <f>I7*1000/60</f>
         <v>61.666666666666664</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="17">
         <v>3.7</v>
       </c>
       <c r="J7" t="s">
@@ -1968,20 +2169,24 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E8" t="s">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="26">
         <f>I8*1000/60</f>
         <v>75</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="17">
         <v>4.5</v>
       </c>
       <c r="J8" t="s">
@@ -1989,112 +2194,174 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E9" t="s">
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="26">
         <f>C12</f>
         <v>0.6</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="5"/>
+      <c r="I9" s="17"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="1"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="23"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="1">
+      <c r="B12" s="23"/>
+      <c r="C12" s="26">
         <v>0.6</v>
       </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C13" s="1"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C15" t="s">
+      <c r="B15" s="23"/>
+      <c r="C15" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E15" t="s">
+      <c r="D15" s="23"/>
+      <c r="E15" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="26">
         <f>G4</f>
         <v>0.8363963963963964</v>
       </c>
+      <c r="H15" s="23"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="C16">
+      <c r="B16" s="23"/>
+      <c r="C16" s="23">
         <f>G3*60*G17*G18*G19/G15</f>
         <v>177.87020680741057</v>
       </c>
-      <c r="E16" t="s">
+      <c r="D16" s="23"/>
+      <c r="E16" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="23">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E17" t="s">
+      <c r="H16" s="23"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="23">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="18" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E18" t="s">
+      <c r="H17" s="23"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="23">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E19" t="s">
+      <c r="H18" s="23"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="23">
         <v>0.9</v>
       </c>
+      <c r="H19" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2108,8 +2375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59:B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2121,22 +2388,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="12"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10"/>
+      <c r="B2" s="20"/>
       <c r="C2" t="s">
         <v>12</v>
       </c>
@@ -2203,7 +2470,7 @@
       <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="21" t="s">
         <v>66</v>
       </c>
       <c r="F7" t="s">
@@ -2222,7 +2489,7 @@
         <f>G7*G9</f>
         <v>7.8947368421052637</v>
       </c>
-      <c r="E8" s="11"/>
+      <c r="E8" s="21"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
@@ -2245,7 +2512,7 @@
       <c r="F10" t="s">
         <v>71</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <v>0.95</v>
       </c>
     </row>
@@ -2310,7 +2577,7 @@
       <c r="F15" t="s">
         <v>81</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="2">
         <f>'cargador frontal'!C7</f>
         <v>0.8363963963963964</v>
       </c>
@@ -2332,7 +2599,7 @@
       <c r="F16" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="3">
         <v>1500</v>
       </c>
       <c r="H16" t="s">
@@ -2499,22 +2766,22 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="D30" s="12"/>
+      <c r="D30" s="22"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="10"/>
+      <c r="B31" s="20"/>
       <c r="C31" t="s">
         <v>12</v>
       </c>
@@ -2575,7 +2842,7 @@
       <c r="C36" t="s">
         <v>22</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="E36" s="21" t="s">
         <v>66</v>
       </c>
       <c r="F36" t="s">
@@ -2594,7 +2861,7 @@
         <f>G36*G38</f>
         <v>7.8947368421052637</v>
       </c>
-      <c r="E37" s="11"/>
+      <c r="E37" s="21"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
@@ -2617,7 +2884,7 @@
       <c r="F39" t="s">
         <v>71</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G39" s="3">
         <v>0.95</v>
       </c>
     </row>
@@ -2682,7 +2949,7 @@
       <c r="F44" t="s">
         <v>81</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G44" s="2">
         <f>'cargador frontal'!C30</f>
         <v>0</v>
       </c>
@@ -2704,7 +2971,7 @@
       <c r="F45" t="s">
         <v>30</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G45" s="3">
         <v>500</v>
       </c>
       <c r="H45" t="s">
@@ -2871,15 +3138,16 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="A59" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="23" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="1">
+      <c r="A60" s="23"/>
+      <c r="B60" s="26">
         <f>AVERAGE(C53,C24)</f>
         <v>71.059153317643634</v>
       </c>
@@ -2900,15 +3168,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="30" customWidth="1"/>
     <col min="5" max="5" width="31.85546875" customWidth="1"/>
     <col min="6" max="6" width="4.5703125" customWidth="1"/>
     <col min="7" max="7" width="9.28515625" customWidth="1"/>
@@ -2916,176 +3184,236 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="23" t="s">
         <v>108</v>
       </c>
+      <c r="C1" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2" s="23"/>
+      <c r="E2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="H2" t="s">
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="2">
+      <c r="B3" s="23"/>
+      <c r="C3" s="25">
         <f>60*G5*(G7-G8)/(G9*G10)</f>
         <v>1095.7192763076923</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D3" s="23"/>
+      <c r="E3" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" t="s">
+      <c r="G3" s="26"/>
+      <c r="H3" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="5" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E4" t="s">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="H4" t="s">
+      <c r="G4" s="23"/>
+      <c r="H4" s="23" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E5" t="s">
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="26">
         <v>100</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="23" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="C6">
+      <c r="B6" s="23"/>
+      <c r="C6" s="23">
         <f>60*G5*G6*(G7-G8)/(G9*G10)</f>
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
+        <v>219.14385526153845</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" t="s">
+      <c r="G6" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="H6" s="23" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="E7" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="26">
         <f>C14</f>
         <v>3.1675730400000006</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="23" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E8" t="s">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="25">
         <v>0.2</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="23" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E9" t="s">
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="26">
         <v>5</v>
       </c>
+      <c r="H9" s="23"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E10" t="s">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="26">
         <f>C17</f>
         <v>3.2500000000000004</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="23" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G11" s="1"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="23"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="E13" t="s">
+      <c r="D13" s="23"/>
+      <c r="E13" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="27">
         <f>I13*0.3048</f>
         <v>3.6576000000000004</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="23" t="s">
         <v>31</v>
       </c>
       <c r="I13">
@@ -3096,22 +3424,25 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="C14" s="1">
+      <c r="B14" s="23"/>
+      <c r="C14" s="26">
         <f>G13*J14</f>
         <v>3.1675730400000006</v>
       </c>
-      <c r="E14" t="s">
+      <c r="D14" s="23"/>
+      <c r="E14" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="28">
         <v>30</v>
       </c>
+      <c r="H14" s="23"/>
       <c r="I14" t="s">
         <v>130</v>
       </c>
@@ -3120,51 +3451,60 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C15" s="1"/>
-      <c r="G15" s="7"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="23"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="E16" t="s">
+      <c r="D16" s="23"/>
+      <c r="E16" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="28">
         <v>100</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="23" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="C17">
+      <c r="B17" s="23"/>
+      <c r="C17" s="23">
         <f>(G16/G17)+(G16/G18)+G19</f>
         <v>3.2500000000000004</v>
       </c>
-      <c r="E17" t="s">
+      <c r="D17" s="23"/>
+      <c r="E17" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="26">
         <f>I17*1000/60</f>
         <v>83.333333333333329</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="23" t="s">
         <v>34</v>
       </c>
       <c r="I17">
@@ -3175,17 +3515,21 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E18" t="s">
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="26">
         <f>I18*1000/60</f>
         <v>83.333333333333329</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="23" t="s">
         <v>34</v>
       </c>
       <c r="I18">
@@ -3196,82 +3540,1109 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E19" t="s">
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="26">
         <v>0.85</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="23" t="s">
         <v>26</v>
       </c>
     </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+    </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C22" t="s">
+      <c r="B22" s="23"/>
+      <c r="C22" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="E22" t="s">
+      <c r="D22" s="23"/>
+      <c r="E22" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="23">
         <v>0.85</v>
       </c>
+      <c r="H22" s="23"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="C23" s="1">
+      <c r="B23" s="23"/>
+      <c r="C23" s="26">
         <f>60*G5*(G7-G8)*G22*G23*G24/(G9*G10)</f>
         <v>838.22524637538459</v>
       </c>
-      <c r="E23" t="s">
+      <c r="D23" s="23"/>
+      <c r="E23" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="23">
         <v>1</v>
       </c>
+      <c r="H23" s="23"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E24" t="s">
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="23">
         <v>0.9</v>
       </c>
+      <c r="H24" s="23"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="23"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="C26">
+      <c r="B26" s="23"/>
+      <c r="C26" s="23">
         <f>60*G5*G6*(G7-G8)*G22*G23*G24/(G9*G10)</f>
+        <v>167.6450492750769</v>
+      </c>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="24" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B32" s="24"/>
+      <c r="C32" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" s="23"/>
+      <c r="C33" s="25">
+        <f>60*G35*(G37-G38)/(G39*G40)</f>
+        <v>960.68968763076907</v>
+      </c>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="F33" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="G33" s="26"/>
+      <c r="H33" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="23"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="F34" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="23"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="F35" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G35" s="26">
+        <v>100</v>
+      </c>
+      <c r="H35" s="23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23">
+        <f>60*G35*G36*(G37-G38)/(G39*G40)</f>
+        <v>192.13793752615382</v>
+      </c>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F36" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="G36" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="H36" s="23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="23" t="s">
         <v>132</v>
       </c>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="F37" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="G37" s="26">
+        <f>C44</f>
+        <v>2.8018679040000003</v>
+      </c>
+      <c r="H37" s="23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="23"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="F38" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="G38" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="H38" s="23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="23"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="F39" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G39" s="26">
+        <v>5</v>
+      </c>
+      <c r="H39" s="23"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="23"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="F40" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="26">
+        <f>C47</f>
+        <v>3.2500000000000004</v>
+      </c>
+      <c r="H40" s="23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="23"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="23"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="23"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="B43" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="F43" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="G43" s="27">
+        <f>I43*0.3048</f>
+        <v>3.6576000000000004</v>
+      </c>
+      <c r="H43" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="I43">
+        <v>12</v>
+      </c>
+      <c r="J43" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="B44" s="23"/>
+      <c r="C44" s="26">
+        <f>G43*J44</f>
+        <v>2.8018679040000003</v>
+      </c>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="F44" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="G44" s="28">
+        <v>40</v>
+      </c>
+      <c r="H44" s="23"/>
+      <c r="I44" t="s">
+        <v>130</v>
+      </c>
+      <c r="J44">
+        <v>0.76604000000000005</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="23"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="23"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="F46" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G46" s="28">
+        <v>100</v>
+      </c>
+      <c r="H46" s="23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23">
+        <f>(G46/G47)+(G46/G48)+G49</f>
+        <v>3.2500000000000004</v>
+      </c>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="F47" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="G47" s="26">
+        <f>I47*1000/60</f>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="H47" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="I47">
+        <v>5</v>
+      </c>
+      <c r="J47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="23"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="F48" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="G48" s="26">
+        <f>I48*1000/60</f>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="H48" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="I48">
+        <v>5</v>
+      </c>
+      <c r="J48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="23"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="F49" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="G49" s="26">
+        <v>0.85</v>
+      </c>
+      <c r="H49" s="23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="23"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="23"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="23"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" s="23"/>
+      <c r="C52" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="F52" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="G52" s="23">
+        <v>0.85</v>
+      </c>
+      <c r="H52" s="23"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="B53" s="23"/>
+      <c r="C53" s="26">
+        <f>60*G35*(G37-G38)*G52*G53*G54/(G39*G40)</f>
+        <v>734.92761103753833</v>
+      </c>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="F53" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="G53" s="23">
+        <v>1</v>
+      </c>
+      <c r="H53" s="23"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="23"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="F54" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="G54" s="23">
+        <v>0.9</v>
+      </c>
+      <c r="H54" s="23"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="23"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="23"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23">
+        <f>60*G35*G36*(G37-G38)*G52*G53*G54/(G39*G40)</f>
+        <v>146.9855222075077</v>
+      </c>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="23"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="B60" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="C60" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="D60" s="23"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="23"/>
+      <c r="H60" s="23"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="24"/>
+      <c r="C61" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="D61" s="23"/>
+      <c r="E61" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F61" s="23"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B62" s="23"/>
+      <c r="C62" s="25">
+        <f>60*G64*(G66-G67)/(G68*G69)</f>
+        <v>1268.507451470769</v>
+      </c>
+      <c r="D62" s="23"/>
+      <c r="E62" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="F62" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="G62" s="26"/>
+      <c r="H62" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="J62" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="23"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="F63" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="G63" s="23"/>
+      <c r="H63" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="23"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="F64" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G64" s="26">
+        <v>100</v>
+      </c>
+      <c r="H64" s="23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="B65" s="23"/>
+      <c r="C65" s="23">
+        <f>60*G64*G65*(G66-G67)/(G68*G69)</f>
+        <v>253.70149029415379</v>
+      </c>
+      <c r="D65" s="23"/>
+      <c r="E65" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F65" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="G65" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="H65" s="23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="B66" s="23"/>
+      <c r="C66" s="23"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="F66" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="G66" s="26">
+        <f>C73</f>
+        <v>3.6355410144000002</v>
+      </c>
+      <c r="H66" s="23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="23"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="F67" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="G67" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="H67" s="23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="23"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="23"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="F68" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G68" s="26">
+        <v>5</v>
+      </c>
+      <c r="H68" s="23"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="23"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="23"/>
+      <c r="D69" s="23"/>
+      <c r="E69" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="F69" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69" s="26">
+        <f>C76</f>
+        <v>3.2500000000000004</v>
+      </c>
+      <c r="H69" s="23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="23"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="23"/>
+      <c r="D70" s="23"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="23"/>
+      <c r="G70" s="26"/>
+      <c r="H70" s="23"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="23"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="23"/>
+      <c r="D71" s="23"/>
+      <c r="E71" s="23"/>
+      <c r="F71" s="23"/>
+      <c r="G71" s="23"/>
+      <c r="H71" s="23"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="B72" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="C72" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D72" s="23"/>
+      <c r="E72" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="F72" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="G72" s="27">
+        <f>I72*0.3048</f>
+        <v>3.6576000000000004</v>
+      </c>
+      <c r="H72" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="I72">
+        <v>12</v>
+      </c>
+      <c r="J72" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="B73" s="23"/>
+      <c r="C73" s="26">
+        <f>G72*J73</f>
+        <v>3.6355410144000002</v>
+      </c>
+      <c r="D73" s="23"/>
+      <c r="E73" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="F73" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="G73" s="28">
+        <v>20</v>
+      </c>
+      <c r="H73" s="23"/>
+      <c r="I73" t="s">
+        <v>130</v>
+      </c>
+      <c r="J73">
+        <v>0.99396899999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="23"/>
+      <c r="B74" s="23"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="23"/>
+      <c r="E74" s="23"/>
+      <c r="F74" s="23"/>
+      <c r="G74" s="28"/>
+      <c r="H74" s="23"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="B75" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D75" s="23"/>
+      <c r="E75" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="F75" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G75" s="28">
+        <v>100</v>
+      </c>
+      <c r="H75" s="23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="B76" s="23"/>
+      <c r="C76" s="23">
+        <f>(G75/G76)+(G75/G77)+G78</f>
+        <v>3.2500000000000004</v>
+      </c>
+      <c r="D76" s="23"/>
+      <c r="E76" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="F76" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="G76" s="26">
+        <f>I76*1000/60</f>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="H76" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="I76">
+        <v>5</v>
+      </c>
+      <c r="J76" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="23"/>
+      <c r="B77" s="23"/>
+      <c r="C77" s="23"/>
+      <c r="D77" s="23"/>
+      <c r="E77" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="F77" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="G77" s="26">
+        <f>I77*1000/60</f>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="H77" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="I77">
+        <v>5</v>
+      </c>
+      <c r="J77" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="23"/>
+      <c r="B78" s="23"/>
+      <c r="C78" s="23"/>
+      <c r="D78" s="23"/>
+      <c r="E78" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="F78" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="G78" s="26">
+        <v>0.85</v>
+      </c>
+      <c r="H78" s="23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="23"/>
+      <c r="B79" s="23"/>
+      <c r="C79" s="23"/>
+      <c r="D79" s="23"/>
+      <c r="E79" s="23"/>
+      <c r="F79" s="23"/>
+      <c r="G79" s="23"/>
+      <c r="H79" s="23"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="23"/>
+      <c r="B80" s="23"/>
+      <c r="C80" s="23"/>
+      <c r="D80" s="23"/>
+      <c r="E80" s="23"/>
+      <c r="F80" s="23"/>
+      <c r="G80" s="23"/>
+      <c r="H80" s="23"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B81" s="30"/>
+      <c r="C81" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="D81" s="23"/>
+      <c r="E81" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="F81" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="G81" s="23">
+        <v>0.85</v>
+      </c>
+      <c r="H81" s="23"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="B82" s="23"/>
+      <c r="C82" s="26">
+        <f>60*G64*(G66-G67)*G81*G82*G83/(G68*G69)</f>
+        <v>970.40820037513811</v>
+      </c>
+      <c r="D82" s="23"/>
+      <c r="E82" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="F82" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="G82" s="23">
+        <v>1</v>
+      </c>
+      <c r="H82" s="23"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="23"/>
+      <c r="B83" s="23"/>
+      <c r="C83" s="23"/>
+      <c r="D83" s="23"/>
+      <c r="E83" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="F83" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="G83" s="23">
+        <v>0.9</v>
+      </c>
+      <c r="H83" s="23"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="23"/>
+      <c r="B84" s="23"/>
+      <c r="C84" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84" s="23"/>
+      <c r="E84" s="23"/>
+      <c r="F84" s="23"/>
+      <c r="G84" s="23"/>
+      <c r="H84" s="23"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="B85" s="23"/>
+      <c r="C85" s="23">
+        <f>60*G64*G65*(G66-G67)*G81*G82*G83/(G68*G69)</f>
+        <v>194.08164007502765</v>
+      </c>
+      <c r="D85" s="23"/>
+      <c r="E85" s="23"/>
+      <c r="F85" s="23"/>
+      <c r="G85" s="23"/>
+      <c r="H85" s="23"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>132</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A81:B81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3281,8 +4652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3292,64 +4663,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="23" t="s">
         <v>149</v>
       </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2" s="23"/>
+      <c r="E2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="H2" t="s">
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="C3" s="2">
+      <c r="B3" s="23"/>
+      <c r="C3" s="25">
         <f>G5*G4*60/G6</f>
-        <v>640.19999999999993</v>
-      </c>
-      <c r="E3" t="s">
+        <v>750</v>
+      </c>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="26">
         <v>3</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="23" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E4" t="s">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="26">
         <f>I4*1000/60</f>
         <v>50</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="17">
         <v>3</v>
       </c>
       <c r="J4" t="s">
@@ -3357,17 +4743,20 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E5" t="s">
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="G5" s="1">
-        <f>I5/1000</f>
-        <v>2.1339999999999999</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="G5" s="26">
+        <v>2</v>
+      </c>
+      <c r="H5" s="23" t="s">
         <v>31</v>
       </c>
       <c r="I5">
@@ -3378,156 +4767,235 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E6" t="s">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="1">
-        <v>10</v>
-      </c>
+      <c r="G6" s="26">
+        <v>8</v>
+      </c>
+      <c r="H6" s="23"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E7" t="s">
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="27">
         <v>0.25</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="23" t="s">
         <v>31</v>
       </c>
     </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+    </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B11" s="23"/>
+      <c r="C11" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="E11" t="s">
+      <c r="D11" s="23"/>
+      <c r="E11" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="23" t="s">
         <v>161</v>
       </c>
+      <c r="G11" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="H11" s="23"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="C12">
+      <c r="B12" s="23"/>
+      <c r="C12" s="23">
         <f>G5*G4*G12*60/G6</f>
-        <v>576.17999999999995</v>
-      </c>
-      <c r="E12" t="s">
+        <v>675</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="23">
         <v>0.9</v>
       </c>
+      <c r="H12" s="23"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23" t="s">
         <v>166</v>
       </c>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="C14">
+      <c r="B14" s="23"/>
+      <c r="C14" s="23">
         <f>G5*G4*G12*G11*60/G6</f>
+        <v>135</v>
+      </c>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>165</v>
-      </c>
-      <c r="B17" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="10"/>
-      <c r="C18" t="s">
+      <c r="B18" s="24"/>
+      <c r="C18" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="E18" t="s">
+      <c r="D18" s="23"/>
+      <c r="E18" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="H18" t="s">
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="C19" s="2">
+      <c r="B19" s="23"/>
+      <c r="C19" s="25">
         <f>G21*G20*60/G22</f>
-        <v>639</v>
-      </c>
-      <c r="E19" t="s">
+        <v>875</v>
+      </c>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="26">
         <v>3</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="23" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E20" t="s">
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="26">
         <f>I20*1000/60</f>
-        <v>50</v>
-      </c>
-      <c r="H20" t="s">
+        <v>58.333333333333336</v>
+      </c>
+      <c r="H20" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="I20" s="5">
-        <v>3</v>
+      <c r="I20" s="17">
+        <v>3.5</v>
       </c>
       <c r="J20" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E21" t="s">
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="G21" s="9">
-        <f>I21/1000</f>
-        <v>2.13</v>
-      </c>
-      <c r="H21" s="4" t="s">
+      <c r="G21" s="31">
+        <v>2</v>
+      </c>
+      <c r="H21" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="3">
         <v>2130</v>
       </c>
       <c r="J21" t="s">
@@ -3535,76 +5003,136 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E22" t="s">
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="G22" s="1">
-        <v>10</v>
-      </c>
+      <c r="G22" s="26">
+        <v>8</v>
+      </c>
+      <c r="H22" s="23"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E23" t="s">
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="G23" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="G23" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="H23" s="23" t="s">
         <v>31</v>
       </c>
     </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="23"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+    </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C27" t="s">
+      <c r="B27" s="23"/>
+      <c r="C27" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="E27" t="s">
+      <c r="D27" s="23"/>
+      <c r="E27" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="G27" s="4"/>
+      <c r="G27" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="H27" s="23"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="C28">
+      <c r="B28" s="23"/>
+      <c r="C28" s="23">
         <f>G21*G20*G28*60/G22</f>
-        <v>575.10000000000014</v>
-      </c>
-      <c r="E28" t="s">
+        <v>787.5</v>
+      </c>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="23">
         <v>0.9</v>
       </c>
+      <c r="H28" s="23"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
+      <c r="A29" s="23"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23" t="s">
         <v>166</v>
       </c>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="C30">
+      <c r="B30" s="23"/>
+      <c r="C30" s="23">
         <f>G21*G20*G28*G27*60/G22</f>
-        <v>0</v>
-      </c>
+        <v>157.5</v>
+      </c>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3612,5 +5140,6 @@
     <mergeCell ref="A18:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>